--- a/docs/testing/Test-report.xlsx
+++ b/docs/testing/Test-report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam_3\NMCNPM\HoXuanQuang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android\Github\Job_Hiring_Web\docs\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF946BBC-FE46-45F5-A269-CC182BC4D51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C75A5F9-C91E-493E-93B0-A14D0C657A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test summary report" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Tester</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>UC08</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
@@ -213,7 +219,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -225,7 +231,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -779,18 +785,18 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.69921875" style="5" customWidth="1"/>
-    <col min="4" max="5" width="10.69921875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.69921875" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="5"/>
+    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="5" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -803,7 +809,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -816,10 +822,10 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -827,7 +833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -835,7 +841,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -843,7 +849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -862,25 +868,25 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.69921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.19921875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="15.19921875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="15.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,7 +915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -931,8 +937,11 @@
       <c r="G2" s="2">
         <v>44935</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -954,8 +963,11 @@
       <c r="G3" s="2">
         <v>44935</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -977,8 +989,11 @@
       <c r="G4" s="2">
         <v>44935</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1000,11 +1015,14 @@
       <c r="G5" s="2">
         <v>44935</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G7" s="2"/>
     </row>
   </sheetData>
@@ -1018,21 +1036,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F75547CFA0E42F42A34FCCD6FF07EA83" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20a66b59edcd1dfee5fd5bf7f5837fc1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f4749fb8-d4ad-42a4-b892-a413f3d47d4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90b91f75dc11c36404f17c4937f0dc62" ns3:_="">
     <xsd:import namespace="f4749fb8-d4ad-42a4-b892-a413f3d47d4d"/>
@@ -1202,31 +1205,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E80F4F4A-D58F-401A-B2D8-1B457E0291BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f4749fb8-d4ad-42a4-b892-a413f3d47d4d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7301210A-F5F9-46C7-8AE6-DEB90D165938}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{992A6C60-C2EC-42AE-9726-B8F8F5516D11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1242,4 +1236,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7301210A-F5F9-46C7-8AE6-DEB90D165938}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E80F4F4A-D58F-401A-B2D8-1B457E0291BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f4749fb8-d4ad-42a4-b892-a413f3d47d4d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>